--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>3.373710071336373</v>
+        <v>5.698220267196</v>
       </c>
       <c r="R2">
-        <v>3.373710071336373</v>
+        <v>51.283982404764</v>
       </c>
       <c r="S2">
-        <v>5.038887553485769E-06</v>
+        <v>7.382307449756209E-06</v>
       </c>
       <c r="T2">
-        <v>5.038887553485769E-06</v>
+        <v>7.382307449756207E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>197.0091499526577</v>
+        <v>1.940426118768</v>
       </c>
       <c r="R3">
-        <v>197.0091499526577</v>
+        <v>17.463835068912</v>
       </c>
       <c r="S3">
-        <v>0.0002942478555147548</v>
+        <v>2.513911628644629E-06</v>
       </c>
       <c r="T3">
-        <v>0.0002942478555147548</v>
+        <v>2.513911628644629E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>427.6493016219808</v>
+        <v>330.702714241912</v>
       </c>
       <c r="R4">
-        <v>427.6493016219808</v>
+        <v>2976.324428177208</v>
       </c>
       <c r="S4">
-        <v>0.0006387261198014874</v>
+        <v>0.0004284406352378535</v>
       </c>
       <c r="T4">
-        <v>0.0006387261198014874</v>
+        <v>0.0004284406352378534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>3.548615137325211</v>
+        <v>757.29918875264</v>
       </c>
       <c r="R5">
-        <v>3.548615137325211</v>
+        <v>6815.692698773761</v>
       </c>
       <c r="S5">
-        <v>5.300121311401326E-06</v>
+        <v>0.0009811160644328685</v>
       </c>
       <c r="T5">
-        <v>5.300121311401326E-06</v>
+        <v>0.0009811160644328683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.0757908461083</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>46.0757908461083</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.005169994820940185</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.005169994820940185</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>18.49021892909052</v>
+        <v>6.071735879788</v>
       </c>
       <c r="R6">
-        <v>18.49021892909052</v>
+        <v>54.645622918092</v>
       </c>
       <c r="S6">
-        <v>2.761652070064077E-05</v>
+        <v>7.866214171529014E-06</v>
       </c>
       <c r="T6">
-        <v>2.761652070064077E-05</v>
+        <v>7.866214171529013E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>1079.743735126512</v>
+        <v>19.098827684615</v>
       </c>
       <c r="R7">
-        <v>1079.743735126512</v>
+        <v>171.889449161535</v>
       </c>
       <c r="S7">
-        <v>0.001612677779904209</v>
+        <v>2.474341308099765E-05</v>
       </c>
       <c r="T7">
-        <v>0.001612677779904209</v>
+        <v>2.474341308099765E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>2343.808165095494</v>
+        <v>6.503761234086666</v>
       </c>
       <c r="R8">
-        <v>2343.808165095494</v>
+        <v>58.53385110678001</v>
       </c>
       <c r="S8">
-        <v>0.00350065226149674</v>
+        <v>8.425922965147138E-06</v>
       </c>
       <c r="T8">
-        <v>0.00350065226149674</v>
+        <v>8.425922965147137E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>19.44881729514976</v>
+        <v>1108.422254313585</v>
       </c>
       <c r="R9">
-        <v>19.44881729514976</v>
+        <v>9975.800288822269</v>
       </c>
       <c r="S9">
-        <v>2.904825883859355E-05</v>
+        <v>0.001436012207636426</v>
       </c>
       <c r="T9">
-        <v>2.904825883859355E-05</v>
+        <v>0.001436012207636426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7017.69588622476</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>7017.69588622476</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>2816.201977899064</v>
+        <v>2538.253355166045</v>
       </c>
       <c r="R10">
-        <v>2816.201977899064</v>
+        <v>22844.2801964944</v>
       </c>
       <c r="S10">
-        <v>0.004206207645139031</v>
+        <v>0.003288424415792499</v>
       </c>
       <c r="T10">
-        <v>0.004206207645139031</v>
+        <v>0.003288424415792498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7017.69588622476</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>7017.69588622476</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>164453.2416921994</v>
+        <v>20.35074670281722</v>
       </c>
       <c r="R11">
-        <v>164453.2416921994</v>
+        <v>183.156720325355</v>
       </c>
       <c r="S11">
-        <v>0.2456231789843655</v>
+        <v>2.636533197166799E-05</v>
       </c>
       <c r="T11">
-        <v>0.2456231789843655</v>
+        <v>2.636533197166798E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>356979.937104648</v>
+        <v>2838.09004340531</v>
       </c>
       <c r="R12">
-        <v>356979.937104648</v>
+        <v>25542.81039064779</v>
       </c>
       <c r="S12">
-        <v>0.5331761544074298</v>
+        <v>0.00367687668922281</v>
       </c>
       <c r="T12">
-        <v>0.5331761544074298</v>
+        <v>0.003676876689222809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.422104904506321</v>
+        <v>0.137516</v>
       </c>
       <c r="N13">
-        <v>0.422104904506321</v>
+        <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q13">
-        <v>2962.203851909304</v>
+        <v>966.4603664661468</v>
       </c>
       <c r="R13">
-        <v>2962.203851909304</v>
+        <v>8698.14329819532</v>
       </c>
       <c r="S13">
-        <v>0.004424272330657304</v>
+        <v>0.001252094027380943</v>
       </c>
       <c r="T13">
-        <v>0.004424272330657304</v>
+        <v>0.001252094027380943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.401300088170972</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N14">
-        <v>0.401300088170972</v>
+        <v>70.309682</v>
       </c>
       <c r="O14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q14">
-        <v>692.1438360102906</v>
+        <v>164711.7936139267</v>
       </c>
       <c r="R14">
-        <v>692.1438360102906</v>
+        <v>1482406.14252534</v>
       </c>
       <c r="S14">
-        <v>0.001033768429043652</v>
+        <v>0.2133917335661629</v>
       </c>
       <c r="T14">
-        <v>0.001033768429043652</v>
+        <v>0.2133917335661628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4340792702359</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N15">
-        <v>23.4340792702359</v>
+        <v>161.00704</v>
       </c>
       <c r="O15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q15">
-        <v>40418.01633634318</v>
+        <v>377185.0133367016</v>
       </c>
       <c r="R15">
-        <v>40418.01633634318</v>
+        <v>3394665.120030314</v>
       </c>
       <c r="S15">
-        <v>0.06036732118273307</v>
+        <v>0.4886605998581609</v>
       </c>
       <c r="T15">
-        <v>0.06036732118273307</v>
+        <v>0.4886605998581607</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.8685390322163</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N16">
-        <v>50.8685390322163</v>
+        <v>1.290893</v>
       </c>
       <c r="O16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q16">
-        <v>87735.70396774253</v>
+        <v>3024.125488060986</v>
       </c>
       <c r="R16">
-        <v>87735.70396774253</v>
+        <v>27217.12939254887</v>
       </c>
       <c r="S16">
-        <v>0.1310398159211861</v>
+        <v>0.003917894197251877</v>
       </c>
       <c r="T16">
-        <v>0.1310398159211861</v>
+        <v>0.003917894197251876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.422104904506321</v>
+        <v>0.403827</v>
       </c>
       <c r="N17">
-        <v>0.422104904506321</v>
+        <v>1.211481</v>
       </c>
       <c r="O17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q17">
-        <v>728.0270212133373</v>
+        <v>1081.559390403994</v>
       </c>
       <c r="R17">
-        <v>728.0270212133373</v>
+        <v>9734.034513635946</v>
       </c>
       <c r="S17">
-        <v>0.001087362641787438</v>
+        <v>0.001401210127151189</v>
       </c>
       <c r="T17">
-        <v>0.001087362641787438</v>
+        <v>0.001401210127151189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.401300088170972</v>
+        <v>0.137516</v>
       </c>
       <c r="N18">
-        <v>0.401300088170972</v>
+        <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q18">
-        <v>46.23850694127073</v>
+        <v>368.3055395770853</v>
       </c>
       <c r="R18">
-        <v>46.23850694127073</v>
+        <v>3314.749856193768</v>
       </c>
       <c r="S18">
-        <v>6.906065790823678E-05</v>
+        <v>0.0004771568316267186</v>
       </c>
       <c r="T18">
-        <v>6.906065790823678E-05</v>
+        <v>0.0004771568316267186</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.4340792702359</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N19">
-        <v>23.4340792702359</v>
+        <v>70.309682</v>
       </c>
       <c r="O19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q19">
-        <v>2700.116119928304</v>
+        <v>62769.53316099771</v>
       </c>
       <c r="R19">
-        <v>2700.116119928304</v>
+        <v>564925.7984489794</v>
       </c>
       <c r="S19">
-        <v>0.004032824760274572</v>
+        <v>0.0813208283540391</v>
       </c>
       <c r="T19">
-        <v>0.004032824760274572</v>
+        <v>0.08132082835403909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.8685390322163</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N20">
-        <v>50.8685390322163</v>
+        <v>161.00704</v>
       </c>
       <c r="O20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q20">
-        <v>5861.163165584303</v>
+        <v>143740.3277749725</v>
       </c>
       <c r="R20">
-        <v>5861.163165584303</v>
+        <v>1293662.949974753</v>
       </c>
       <c r="S20">
-        <v>0.008754084227609182</v>
+        <v>0.186222231294289</v>
       </c>
       <c r="T20">
-        <v>0.008754084227609182</v>
+        <v>0.186222231294289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.422104904506321</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N21">
-        <v>0.422104904506321</v>
+        <v>1.290893</v>
       </c>
       <c r="O21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q21">
-        <v>48.63567472889416</v>
+        <v>1152.45509104706</v>
       </c>
       <c r="R21">
-        <v>48.63567472889416</v>
+        <v>10372.09581942354</v>
       </c>
       <c r="S21">
-        <v>7.264100674475907E-05</v>
+        <v>0.00149305878067306</v>
       </c>
       <c r="T21">
-        <v>7.264100674475907E-05</v>
+        <v>0.00149305878067306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H22">
+        <v>355.157105</v>
+      </c>
+      <c r="I22">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J22">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>47.807342746945</v>
+      </c>
+      <c r="R22">
+        <v>430.266084722505</v>
+      </c>
+      <c r="S22">
+        <v>6.193661985051533E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.193661985051531E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H23">
+        <v>355.157105</v>
+      </c>
+      <c r="I23">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J23">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>16.27992815039333</v>
+      </c>
+      <c r="R23">
+        <v>146.51935335354</v>
+      </c>
+      <c r="S23">
+        <v>2.109139858247087E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.109139858247087E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H24">
+        <v>355.157105</v>
+      </c>
+      <c r="I24">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J24">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>2774.553679176734</v>
+      </c>
+      <c r="R24">
+        <v>24970.98311259061</v>
+      </c>
+      <c r="S24">
+        <v>0.003594562395815221</v>
+      </c>
+      <c r="T24">
+        <v>0.003594562395815221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H25">
+        <v>355.157105</v>
+      </c>
+      <c r="I25">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J25">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>6353.643801224356</v>
+      </c>
+      <c r="R25">
+        <v>57182.79421101921</v>
+      </c>
+      <c r="S25">
+        <v>0.00823143889977368</v>
+      </c>
+      <c r="T25">
+        <v>0.008231438899773678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H26">
+        <v>355.157105</v>
+      </c>
+      <c r="I26">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J26">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>50.94109119386278</v>
+      </c>
+      <c r="R26">
+        <v>458.469820744765</v>
+      </c>
+      <c r="S26">
+        <v>6.599653565238852E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.59965356523885E-05</v>
       </c>
     </row>
   </sheetData>
